--- a/java/Hybrid/util/InputData.xlsx
+++ b/java/Hybrid/util/InputData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="59">
   <si>
     <t xml:space="preserve">Email ID</t>
   </si>
@@ -30,115 +30,129 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
+    <t xml:space="preserve">Invalid Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">te</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid email ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test@</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test@mailinator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test@mailinator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test@mailinator.i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test@.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@mailinator.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invalid password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">styl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">style</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid combination</t>
+  </si>
+  <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Address
-Pincode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test@prashanth.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testing123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazing Tester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test@prashanth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AmazingTester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve">EmailID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 colum invalid and 2 cloumn valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invalid name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">styletag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only valid password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 column invalid and 1 column valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">only valid name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">only valid email ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test@mailinator.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all invalid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LoginButton disability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">two blankspaces in each cell (both the fields are empty)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test3456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">styletag123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test3456@</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test3456@st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test3456@styletag.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test3456@styletag.c</t>
   </si>
   <si>
     <t xml:space="preserve">      </t>
   </si>
   <si>
-    <t xml:space="preserve">Login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">example@styletag.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing styletag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#20, Vasanth Nagar, Bangalore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Murthy medicals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative scenarios1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">example@styl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative scenarios2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LoginButton disability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">two blankspaces in each cell (both the fields are empty)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test3456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">styletag123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test3456@</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test3456@st</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test3456@styletag.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test3456@styletag.c</t>
-  </si>
-  <si>
     <t xml:space="preserve">blank emailis</t>
   </si>
   <si>
@@ -166,9 +180,6 @@
     <t xml:space="preserve">styletag12</t>
   </si>
   <si>
-    <t xml:space="preserve">invalid password</t>
-  </si>
-  <si>
     <t xml:space="preserve">test34567@styletag.com</t>
   </si>
   <si>
@@ -184,19 +195,10 @@
     <t xml:space="preserve">Search Keyword</t>
   </si>
   <si>
-    <t xml:space="preserve">low_high or high/low</t>
-  </si>
-  <si>
     <t xml:space="preserve">shoes</t>
   </si>
   <si>
-    <t xml:space="preserve">“1”</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 -low_high</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2- high_low</t>
+    <t xml:space="preserve">bags</t>
   </si>
 </sst>
 </file>
@@ -306,11 +308,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -335,230 +337,687 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.4336734693878"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="0" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="0" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C29" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C42" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C51" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C52" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="0" t="s">
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="C66" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="n">
-        <v>12345678</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>560054</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>9986255327</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>12345678</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>12345678</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>12345678</v>
-      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="test@prashanth.net"/>
-    <hyperlink ref="A4" r:id="rId2" display="test@prashanth"/>
-    <hyperlink ref="A5" r:id="rId3" display="test@prashanth.net"/>
-    <hyperlink ref="A6" r:id="rId4" display="test@prashanth.net"/>
-    <hyperlink ref="B8" r:id="rId5" display="test@prashanth.net"/>
-    <hyperlink ref="A10" r:id="rId6" display="example@styletag.com"/>
-    <hyperlink ref="A12" r:id="rId7" display="example@styletag.com"/>
-    <hyperlink ref="A13" r:id="rId8" display="example@styl"/>
-    <hyperlink ref="A17" r:id="rId9" display="example@styletag.com"/>
-    <hyperlink ref="A18" r:id="rId10" display="example@styletag.com"/>
-    <hyperlink ref="A19" r:id="rId11" display="example@styletag.com"/>
+    <hyperlink ref="A8" r:id="rId1" display="test@mailinator"/>
+    <hyperlink ref="A9" r:id="rId2" display="test@mailinator."/>
+    <hyperlink ref="A10" r:id="rId3" display="test@mailinator.i"/>
+    <hyperlink ref="B22" r:id="rId4" display="test@mailinator.com"/>
+    <hyperlink ref="B23" r:id="rId5" display="test@mailinator.com"/>
+    <hyperlink ref="B27" r:id="rId6" display="test@mailinator"/>
+    <hyperlink ref="B28" r:id="rId7" display="test@mailinator."/>
+    <hyperlink ref="B29" r:id="rId8" display="test@mailinator.i"/>
+    <hyperlink ref="B33" r:id="rId9" display="test@mailinator.com"/>
+    <hyperlink ref="B34" r:id="rId10" display="test@mailinator.com"/>
+    <hyperlink ref="B35" r:id="rId11" display="test@mailinator.com"/>
+    <hyperlink ref="B36" r:id="rId12" display="test@mailinator.com"/>
+    <hyperlink ref="B37" r:id="rId13" display="test@mailinator.com"/>
+    <hyperlink ref="B41" r:id="rId14" display="test@mailinator"/>
+    <hyperlink ref="B42" r:id="rId15" display="test@mailinator."/>
+    <hyperlink ref="B43" r:id="rId16" display="test@mailinator.i"/>
+    <hyperlink ref="B50" r:id="rId17" display="test@mailinator"/>
+    <hyperlink ref="B51" r:id="rId18" display="test@mailinator."/>
+    <hyperlink ref="B52" r:id="rId19" display="test@mailinator.i"/>
+    <hyperlink ref="B56" r:id="rId20" display="test@mailinator.in"/>
+    <hyperlink ref="B57" r:id="rId21" display="test@mailinator.in"/>
+    <hyperlink ref="B58" r:id="rId22" display="test@mailinator.in"/>
+    <hyperlink ref="B59" r:id="rId23" display="test@mailinator.in"/>
+    <hyperlink ref="B60" r:id="rId24" display="test@mailinator.in"/>
+    <hyperlink ref="B64" r:id="rId25" display="test@mailinator"/>
+    <hyperlink ref="B65" r:id="rId26" display="test@mailinator."/>
+    <hyperlink ref="B66" r:id="rId27" display="test@mailinator.i"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -577,25 +1036,24 @@
   </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.1020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1989795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -603,137 +1061,137 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>33</v>
+      <c r="A6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>33</v>
+      <c r="A7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>39</v>
+      <c r="A10" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>33</v>
+        <v>48</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="B14" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>48</v>
+      <c r="A15" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>39</v>
+      <c r="A17" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -761,41 +1219,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="0" t="s">
-        <v>57</v>
+      <c r="A3" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/java/Hybrid/util/InputData.xlsx
+++ b/java/Hybrid/util/InputData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="62">
   <si>
     <t xml:space="preserve">Email ID</t>
   </si>
@@ -118,6 +118,15 @@
   </si>
   <si>
     <t xml:space="preserve">all invalid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valid data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test(random num)@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">LoginButton disability</t>
@@ -337,19 +346,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A53" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A78" activeCellId="0" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.4336734693878"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -984,10 +995,20 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69" s="4"/>
+      <c r="A69" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1042,18 +1063,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -1061,107 +1083,107 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
@@ -1169,29 +1191,29 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1227,24 +1249,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
